--- a/MainBoard.xlsx
+++ b/MainBoard.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\HoloCubic-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\HoloCube-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F47B6-AB5D-4D9F-982D-0B13ED02586C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259553FA-E9B5-4D68-B09B-195C2AB64501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64F43C6D-1E9A-4C6C-BF83-F0D1C7E48388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{64F43C6D-1E9A-4C6C-BF83-F0D1C7E48388}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoard" sheetId="1" r:id="rId1"/>
     <sheet name="ExtendBoard" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MainBoard!$1:$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="228">
   <si>
     <t>Comment</t>
   </si>
@@ -380,13 +381,367 @@
   <si>
     <t>TF-Socket</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPS屏幕</t>
+  </si>
+  <si>
+    <t>焊接12p</t>
+  </si>
+  <si>
+    <t>48啊生去里自他能上去的于多微 https://m.tb.cn/h.fRYQU2Z 1.33寸ips 1.3寸TFT显示屏ips液晶1.3寸st7789 ips显示屏240x240</t>
+  </si>
+  <si>
+    <t>拆焊台</t>
+  </si>
+  <si>
+    <t>大功率400W 10件套</t>
+  </si>
+  <si>
+    <t>回到淘宝哈地生子时他能上然天说要嘻欢发热板预热台led灯珠拆焊台 液晶灯条拆焊BGA芯片预热恒温加热板</t>
+  </si>
+  <si>
+    <t>铅锡膏</t>
+  </si>
+  <si>
+    <t>183读 30G</t>
+  </si>
+  <si>
+    <t>回到淘宝嘻后对都在他能上然我么得啊喜安立信锡浆贴片焊接锡膏手机维修环保无铅高中低温焊锡膏针筒锡泥</t>
+  </si>
+  <si>
+    <t>焊锡膏</t>
+  </si>
+  <si>
+    <t>100g 1瓶</t>
+  </si>
+  <si>
+    <t>复制回桃宝,哈里地那个他能上心家子么啊二金鸡牌焊锡膏 无铅环保焊锡膏 100克 中性助焊膏 助焊剂 松香</t>
+  </si>
+  <si>
+    <t>TF卡座</t>
+  </si>
+  <si>
+    <t>用淘宝口令嘻也说上会他能上然地学了啊三全新原装1140084168 Amphenol 内焊TF卡座 microSD卡槽</t>
+  </si>
+  <si>
+    <t>钢网</t>
+  </si>
+  <si>
+    <t>10*10 注意：给卖家发PCB源文件</t>
+  </si>
+  <si>
+    <t>复制回桃宝,！说中多过他能上学起过个，欢专业SMT钢网制作PCB模板贴片SMT锡膏红胶激光钢网pcb钢网37*47CM</t>
+  </si>
+  <si>
+    <t>分光棱镜</t>
+  </si>
+  <si>
+    <t>规格25.4</t>
+  </si>
+  <si>
+    <t>89哈时着是有他能会他能到对微 https://m.tb.cn/h.fiRaU7T?sm=b52d6c 分光棱镜 25.4mm实验教学仪器 半透半反1:1分光 影像分光投射棱镜</t>
+  </si>
+  <si>
+    <t>立创下单元器件</t>
+  </si>
+  <si>
+    <t>购买类型</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>物料编码</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>商品型号</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>封装规格</t>
+  </si>
+  <si>
+    <t>单个毛重</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <t>C2763771</t>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+  </si>
+  <si>
+    <t>1kΩ ±0.5%</t>
+  </si>
+  <si>
+    <t>SY0402DE1KP</t>
+  </si>
+  <si>
+    <t>SANYEAR(叁叶源)</t>
+  </si>
+  <si>
+    <t>环境光传感器</t>
+  </si>
+  <si>
+    <t>ROHM(罗姆)</t>
+  </si>
+  <si>
+    <t>WSOF-6I</t>
+  </si>
+  <si>
+    <t>姿态传感器</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>TDK InvenSense(应美盛)</t>
+  </si>
+  <si>
+    <t>QFN-24_4x4x05P</t>
+  </si>
+  <si>
+    <t>无线收发芯片</t>
+  </si>
+  <si>
+    <t>ESP32-PICO-D4</t>
+  </si>
+  <si>
+    <t>ESPRESSIF 乐鑫</t>
+  </si>
+  <si>
+    <t>QFN-48_7x7x05P</t>
+  </si>
+  <si>
+    <t>USB芯片</t>
+  </si>
+  <si>
+    <t>CP2102-GMR</t>
+  </si>
+  <si>
+    <t>SILICON LABS(芯科)</t>
+  </si>
+  <si>
+    <t>QFN-28_5x5x05P</t>
+  </si>
+  <si>
+    <t>线性稳压器(LDO)</t>
+  </si>
+  <si>
+    <t>LP2992IM5-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>贴片电容(MLCC)</t>
+  </si>
+  <si>
+    <t>10nF ±10% 50V</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB103</t>
+  </si>
+  <si>
+    <t>YAGEO(国巨)</t>
+  </si>
+  <si>
+    <t>FFC/FPC连接器</t>
+  </si>
+  <si>
+    <t>FPC 0.5MM 8P 翻盖式 H2.0mm 下接</t>
+  </si>
+  <si>
+    <t>AFC01-S08FCA-00</t>
+  </si>
+  <si>
+    <t>JS(钜硕电子)</t>
+  </si>
+  <si>
+    <t>SMD,P=0.5mm</t>
+  </si>
+  <si>
+    <t>10kΩ ±5%</t>
+  </si>
+  <si>
+    <t>RC-02W103JT</t>
+  </si>
+  <si>
+    <t>FH(风华)</t>
+  </si>
+  <si>
+    <t>10uF ±20% 6.3V</t>
+  </si>
+  <si>
+    <t>CL05A106MQ5NUNC</t>
+  </si>
+  <si>
+    <t>SAMSUNG(三星)</t>
+  </si>
+  <si>
+    <t>12kΩ ±1%</t>
+  </si>
+  <si>
+    <t>RC0402FR-0712KL</t>
+  </si>
+  <si>
+    <t>场效应管(MOSFET)</t>
+  </si>
+  <si>
+    <t>AO3415</t>
+  </si>
+  <si>
+    <t>HUASHUO(华朔)</t>
+  </si>
+  <si>
+    <t>SOT-23L</t>
+  </si>
+  <si>
+    <t>2.2nF ±10% 50V</t>
+  </si>
+  <si>
+    <t>0402B222K500NT</t>
+  </si>
+  <si>
+    <t>三极管(BJT)</t>
+  </si>
+  <si>
+    <t>S8050 J3Y (200-350)</t>
+  </si>
+  <si>
+    <t>S8050 J3Y</t>
+  </si>
+  <si>
+    <t>CJ（江苏长电/长晶）</t>
+  </si>
+  <si>
+    <t>SOT-23(SOT-23-3)</t>
+  </si>
+  <si>
+    <t>100nF ±10% 16V</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>FFC/FPC连接线</t>
+  </si>
+  <si>
+    <t>FFC连接线 8P 间距0.5mm 长5CM 同向</t>
+  </si>
+  <si>
+    <t>LX(连线电子)</t>
+  </si>
+  <si>
+    <t>P=0.5mm</t>
+  </si>
+  <si>
+    <t>0Ω ±5%</t>
+  </si>
+  <si>
+    <t>0402WGJ0000TCE</t>
+  </si>
+  <si>
+    <t>UNI-ROYAL(厚声)</t>
+  </si>
+  <si>
+    <t>200Ω ±1%</t>
+  </si>
+  <si>
+    <t>RC0402FR-07200RL</t>
+  </si>
+  <si>
+    <t>发光二极管</t>
+  </si>
+  <si>
+    <t>5050 RGB集成光源 4Pin</t>
+  </si>
+  <si>
+    <t>WS2812B-B</t>
+  </si>
+  <si>
+    <t>worldsemi</t>
+  </si>
+  <si>
+    <t>SMD,5x5mm</t>
+  </si>
+  <si>
+    <t>C709357</t>
+  </si>
+  <si>
+    <t>USB连接器</t>
+  </si>
+  <si>
+    <t>Type-C母座</t>
+  </si>
+  <si>
+    <t>KH-TYPE-C-16P</t>
+  </si>
+  <si>
+    <t>kinghelm(金航标)</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>赠品</t>
+  </si>
+  <si>
+    <t>各类开发板</t>
+  </si>
+  <si>
+    <t>LDO方案验证板（A版）</t>
+  </si>
+  <si>
+    <t>LC(立创)</t>
+  </si>
+  <si>
+    <t>PCB空板</t>
+  </si>
+  <si>
+    <t>订货</t>
+  </si>
+  <si>
+    <t>天线</t>
+  </si>
+  <si>
+    <t>AN2051-245</t>
+  </si>
+  <si>
+    <t>rainsun台湾霖昱微</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +802,31 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +839,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -496,13 +880,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +995,54 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,21 +1360,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1173CCD0-6111-4126-B414-69E1BB5E8243}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -911,7 +1395,7 @@
       </c>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -935,7 +1419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -961,7 +1445,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -987,7 +1471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1039,7 +1523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1575,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
         <v>110</v>
       </c>
@@ -1115,7 +1599,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1625,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -1193,7 +1677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
@@ -1248,7 +1732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1274,7 +1758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
         <v>95</v>
       </c>
@@ -1303,7 +1787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
@@ -1330,7 +1814,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -1354,7 +1838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -1378,7 +1862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -1404,7 +1888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -1412,7 +1896,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
@@ -1438,7 +1922,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1464,7 +1948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
         <v>85</v>
       </c>
@@ -1490,7 +1974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
         <v>89</v>
       </c>
@@ -1531,7 +2015,7 @@
       <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
@@ -1542,7 +2026,7 @@
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +2047,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1589,7 +2073,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +2096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
@@ -1635,7 +2119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>89</v>
       </c>
@@ -1662,4 +2146,1091 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CA9F7B-8395-4BB0-B02C-47CB869F2E5F}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="25">
+        <v>402</v>
+      </c>
+      <c r="I13" s="25">
+        <v>1.2E-5</v>
+      </c>
+      <c r="J13" s="25">
+        <v>50</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="L13" s="26">
+        <v>1.53</v>
+      </c>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="30">
+        <v>4.6E-5</v>
+      </c>
+      <c r="J14" s="30">
+        <v>1</v>
+      </c>
+      <c r="K14" s="31">
+        <v>6.03</v>
+      </c>
+      <c r="L14" s="31">
+        <v>6.03</v>
+      </c>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1.44E-4</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1</v>
+      </c>
+      <c r="K15" s="31">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="L15" s="31">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="30">
+        <v>3.1E-4</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1</v>
+      </c>
+      <c r="K16" s="31">
+        <v>21.11</v>
+      </c>
+      <c r="L16" s="31">
+        <v>21.11</v>
+      </c>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1.45E-4</v>
+      </c>
+      <c r="J17" s="30">
+        <v>1</v>
+      </c>
+      <c r="K17" s="31">
+        <v>18.23</v>
+      </c>
+      <c r="L17" s="31">
+        <v>18.23</v>
+      </c>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="30">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
+      <c r="K18" s="31">
+        <v>6.44</v>
+      </c>
+      <c r="L18" s="31">
+        <v>6.44</v>
+      </c>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="30">
+        <v>402</v>
+      </c>
+      <c r="I19" s="30">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="J19" s="30">
+        <v>100</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0.46</v>
+      </c>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="30">
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="J20" s="30">
+        <v>5</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0.59</v>
+      </c>
+      <c r="L20" s="31">
+        <v>2.93</v>
+      </c>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="30">
+        <v>402</v>
+      </c>
+      <c r="I21" s="30">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J21" s="30">
+        <v>100</v>
+      </c>
+      <c r="K21" s="31">
+        <v>0</v>
+      </c>
+      <c r="L21" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="30">
+        <v>402</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="J22" s="30">
+        <v>50</v>
+      </c>
+      <c r="K22" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="L22" s="31">
+        <v>1.36</v>
+      </c>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="30">
+        <v>402</v>
+      </c>
+      <c r="I23" s="30">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="J23" s="30">
+        <v>100</v>
+      </c>
+      <c r="K23" s="31">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0.49</v>
+      </c>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" s="30">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="J24" s="30">
+        <v>5</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0.43</v>
+      </c>
+      <c r="L24" s="31">
+        <v>2.16</v>
+      </c>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="30">
+        <v>402</v>
+      </c>
+      <c r="I25" s="30">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J25" s="30">
+        <v>100</v>
+      </c>
+      <c r="K25" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="30">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="J26" s="30">
+        <v>20</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="L26" s="31">
+        <v>2.13</v>
+      </c>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="30">
+        <v>402</v>
+      </c>
+      <c r="I27" s="30">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="J27" s="30">
+        <v>100</v>
+      </c>
+      <c r="K27" s="31">
+        <v>0</v>
+      </c>
+      <c r="L27" s="31">
+        <v>0.44</v>
+      </c>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="30">
+        <v>9.7E-5</v>
+      </c>
+      <c r="J28" s="30">
+        <v>10</v>
+      </c>
+      <c r="K28" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="L28" s="31">
+        <v>3.33</v>
+      </c>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="30">
+        <v>402</v>
+      </c>
+      <c r="I29" s="30">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="J29" s="30">
+        <v>200</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0</v>
+      </c>
+      <c r="L29" s="31">
+        <v>0.66</v>
+      </c>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="30">
+        <v>402</v>
+      </c>
+      <c r="I30" s="30">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="J30" s="30">
+        <v>100</v>
+      </c>
+      <c r="K30" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="31">
+        <v>0.52</v>
+      </c>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="30">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="J31" s="30">
+        <v>5</v>
+      </c>
+      <c r="K31" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L31" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="30">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="J32" s="30">
+        <v>10</v>
+      </c>
+      <c r="K32" s="31">
+        <v>0.48</v>
+      </c>
+      <c r="L32" s="31">
+        <v>4.84</v>
+      </c>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" s="30">
+        <v>2.9961999999999999E-2</v>
+      </c>
+      <c r="J33" s="30">
+        <v>1</v>
+      </c>
+      <c r="K33" s="31">
+        <v>0</v>
+      </c>
+      <c r="L33" s="31">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="30">
+        <v>2051</v>
+      </c>
+      <c r="I34" s="30">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="J34" s="30">
+        <v>1</v>
+      </c>
+      <c r="K34" s="31">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="L34" s="31">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="M34" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MainBoard.xlsx
+++ b/MainBoard.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\HoloCube-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259553FA-E9B5-4D68-B09B-195C2AB64501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE411A9-9472-4669-9649-BDD05276D401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{64F43C6D-1E9A-4C6C-BF83-F0D1C7E48388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{64F43C6D-1E9A-4C6C-BF83-F0D1C7E48388}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoard" sheetId="1" r:id="rId1"/>
     <sheet name="ExtendBoard" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MainBoard!$1:$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="286">
   <si>
     <t>Comment</t>
   </si>
@@ -732,6 +733,181 @@
   </si>
   <si>
     <t>rainsun台湾霖昱微</t>
+  </si>
+  <si>
+    <t>2.4G陶瓷天线</t>
+  </si>
+  <si>
+    <t>ANT-Rainsun-AN5120</t>
+  </si>
+  <si>
+    <t>ANT-Rainsun-AP5120</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=2013.1.1997525049.8.78921d28ikxCBQ&amp;id=558699169012</t>
+  </si>
+  <si>
+    <t>优信电子有邮费，凑单便宜</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/61526.html</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/297154.html</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/61185.html</t>
+  </si>
+  <si>
+    <t>FFC排线插座 上接</t>
+  </si>
+  <si>
+    <t>FFC/FPC连接器0.5MM 上接 下接 翻盖下接 4/6/8/10/12/14/16—40P-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>优信电子单买有邮费，凑单包邮</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=580292748208</t>
+  </si>
+  <si>
+    <t>邮费3块</t>
+  </si>
+  <si>
+    <t>TF-Socket</t>
+  </si>
+  <si>
+    <t>Amphenol 1140084168</t>
+  </si>
+  <si>
+    <t>TF-Card-Amphenol with TF</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/26487.html</t>
+  </si>
+  <si>
+    <t>可以优信采购，也可以嘉立创直接贴片</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/22093.html</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/25830.html</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/26495.html</t>
+  </si>
+  <si>
+    <t>原装正品 贴片 28脚 CP2102 CP2102-GMR USB转UART 桥接控制器-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>LP2992</t>
+  </si>
+  <si>
+    <t>LP2992AIM5-3.3 LP2992 LP2992AIM5X-3.3 SOT23-5 线性稳压器-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>MPU6050</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=36766551235</t>
+  </si>
+  <si>
+    <t>ESP32-PICO</t>
+  </si>
+  <si>
+    <t>原装正品 ESP32-PICO-D4 QFN-48 双核Wi-Fi&amp;蓝牙MCU无线收发芯片-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>光强度传感器</t>
+  </si>
+  <si>
+    <t>BH1750FVI</t>
+  </si>
+  <si>
+    <t>全新原装 BH1750FVI BH1750FVI-TR 芯片 贴片 WSOF6 环境光传感器-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>贴片USB-3.1插座 Type-C母座 16P 高清传输接口 4固定插脚 双向-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>原装正品 S8050 丝印J3Y SOT-23 NPN 25V/500mA 贴片三极管 20只-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>商品链接</t>
+  </si>
+  <si>
+    <t>参考单价</t>
+  </si>
+  <si>
+    <t>焊接式12Pin裸屏 （玻璃品牌随意）</t>
+  </si>
+  <si>
+    <t>LCD-240x240-NoHole</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=565306950948</t>
+  </si>
+  <si>
+    <t>FFC_0.5_8 下接</t>
+  </si>
+  <si>
+    <t>FFC座</t>
+  </si>
+  <si>
+    <t>上下接区别不大</t>
+  </si>
+  <si>
+    <t>全新原装UMW AO3415A SOT-23 -20V/-4A P沟道 MOS(场效应管)芯片-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>无极性贴片电容</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C 0402_M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>0402贴片电容 100NF (104K) 50V 精度±10% （100只）-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>XC6206P332MR</t>
+  </si>
+  <si>
+    <t>低压差线性稳压芯片</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>SOT23-3L</t>
+  </si>
+  <si>
+    <t>贴片 SOT-23 XC6206P332MR (662K) 3.3V 300MA 稳压芯片（20只）-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>0402贴片电阻 1K 1千欧 1/16W 精度±1% （50只）-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>25.4mm 1:1 分光棱镜</t>
+  </si>
+  <si>
+    <t>稚晖君同款 分光棱镜25.4mm半透半反 HoloCubic光学影像分光投射-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>8p同向0.5mm间距6cm排线</t>
+  </si>
+  <si>
+    <t>FFC/FPC软排线 液晶连接线 8P 同向/反向 0.5/1.0mm间距-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>DM3D-SF 原装卡座-淘宝网 (taobao.com)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -739,7 +915,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1017,7 +1193,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1208,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1537,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2152,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CA9F7B-8395-4BB0-B02C-47CB869F2E5F}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -3233,4 +3409,765 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD69282D-D494-40B4-B124-7A013ACAAE19}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1">
+        <v>1.85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6">
+        <v>0.24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7">
+        <v>0.19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23">
+        <v>0.24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>